--- a/similarities/split_global/harmonic_similarity_timestamps_166.xlsx
+++ b/similarities/split_global/harmonic_similarity_timestamps_166.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J16"/>
+  <dimension ref="A1:L16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -484,462 +484,502 @@
           <t>spotify_uri_track_2</t>
         </is>
       </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>Is the shared pattern good for the demo? (Yes/No)</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>Rate the goodness of the shared pattern (from 1 to 5)</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>isophonics_157</t>
+          <t>isophonics_96</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>isophonics_296</t>
+          <t>schubert-winterreise_40</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>[['B', 'E', 'A', 'E', 'B']]</t>
+          <t>['D:maj', 'G:maj', 'D:maj', 'A:maj']</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>[['D:maj', 'G:maj', 'C:maj', 'G:maj', 'D:maj']]</t>
+          <t>['D:maj/F#', 'G:maj', 'D:maj', 'A:maj']</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>[('0:00:27.840748', '0:00:44.245646')]</t>
+          <t>('0:00:11.384000', '0:00:18.837000')</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>[('0:00:13.822000', '0:00:24.195000')]</t>
+          <t>('0:01:00.040000', '0:01:10.960000')</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-157#t=27.840748']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-96#t=11.384</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-296#t=13.822']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-40#t=60.04</t>
         </is>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
+      <c r="K2" t="inlineStr"/>
+      <c r="L2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>schubert-winterreise_27</t>
+          <t>isophonics_166</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>isophonics_79</t>
+          <t>isophonics_273</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>[['G:maj/B', 'C:maj', 'G:maj/D']]</t>
+          <t>['G', 'D', 'G']</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>[['E', 'A', 'E']]</t>
+          <t>['C', 'G', 'C']</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>[('0:01:02.480000', '0:01:04.920000')]</t>
+          <t>('0:00:17.839297', '0:00:30.215532')</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>[('0:00:07.284457', '0:00:20.438561')]</t>
+          <t>('0:00:20.801000', '0:00:27.165000')</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-27#t=62.48']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-166#t=17.839297</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-79#t=7.284457']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-273#t=20.801</t>
         </is>
       </c>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
+      <c r="K3" t="inlineStr"/>
+      <c r="L3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>isophonics_193</t>
+          <t>schubert-winterreise_60</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>schubert-winterreise_198</t>
+          <t>schubert-winterreise_177</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>[['Ab', 'Eb', 'Bb/3']]</t>
+          <t>['G:min', 'D:maj/G', 'G:min']</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>[['A:maj', 'E:maj', 'B:maj']]</t>
+          <t>['A:min', 'E:maj', 'A:min']</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>[('0:00:25.942000', '0:00:29.102000')]</t>
+          <t>('0:00:06.300000', '0:00:14.360000')</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>[('0:00:58.620000', '0:01:05.560000')]</t>
+          <t>('0:00:13.500000', '0:00:21.900000')</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-193#t=25.942']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-60#t=6.3</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-198#t=58.62']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-177#t=13.5</t>
         </is>
       </c>
       <c r="I4" t="inlineStr"/>
-      <c r="J4" t="inlineStr"/>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
+        </is>
+      </c>
+      <c r="K4" t="inlineStr"/>
+      <c r="L4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>schubert-winterreise_65</t>
+          <t>schubert-winterreise_114</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>schubert-winterreise_69</t>
+          <t>jaah_3</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>[['D#:min', 'A#:7', 'D#:min']]</t>
+          <t>['D:maj', 'A:7', 'D:maj', 'A:7', 'D:maj', 'A:7', 'D:maj']</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>[['B:min', 'F#:7/A#', 'B:min']]</t>
+          <t>['Eb', 'Bb:7', 'Eb', 'Bb:7', 'Eb', 'Bb:7', 'Eb']</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>[('0:00:09.100000', '0:00:13.860000')]</t>
+          <t>('0:00:27.600000', '0:00:54.260000')</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>[('0:00:42.360000', '0:00:50.360000')]</t>
+          <t>('0:00:30.050000', '0:00:41.370000')</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-65#t=9.1']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-114#t=27.6</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-69#t=42.36']</t>
-        </is>
-      </c>
-      <c r="I5" t="inlineStr">
-        <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
-        </is>
-      </c>
-      <c r="J5" t="inlineStr">
-        <is>
-          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
-        </is>
-      </c>
+          <t>https://soundcloud.com/jacopo-de-berardinis/jaah-3#t=30.05</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr"/>
+      <c r="J5" t="inlineStr"/>
+      <c r="K5" t="inlineStr"/>
+      <c r="L5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>schubert-winterreise_0</t>
+          <t>schubert-winterreise_111</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>schubert-winterreise_45</t>
+          <t>isophonics_5</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>[['B:min/F#', 'F#:7', 'B:min']]</t>
+          <t>['G:maj', 'C:maj/G', 'G:maj']</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>[['B:min', 'F#:7/A#', 'B:min']]</t>
+          <t>['E', 'A', 'E']</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>[('0:01:14.100000', '0:01:20.040000')]</t>
+          <t>('0:00:16.040000', '0:00:22.400000')</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>[('0:00:36.660000', '0:00:43.940000')]</t>
+          <t>('0:00:09.162102', '0:00:14.073123')</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-0#t=74.1']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-111#t=16.04</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-45#t=36.66']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-5#t=9.162102</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
-        </is>
-      </c>
-      <c r="J6" t="inlineStr">
-        <is>
-          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
-        </is>
-      </c>
+          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr"/>
+      <c r="K6" t="inlineStr"/>
+      <c r="L6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>schubert-winterreise_116</t>
+          <t>isophonics_149</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>schubert-winterreise_121</t>
+          <t>schubert-winterreise_132</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>[['G:min', 'D:maj/G', 'G:min'], ['G:min', 'D:7/G', 'G:min']]</t>
+          <t>['B', 'E', 'B']</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>[['C:min/G', 'G', 'C:min'], ['C:min/G', 'G:7', 'C:min']]</t>
+          <t>['F:maj', 'A#:maj/F', 'F:maj']</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>[('0:00:08.440000', '0:00:17.540000'), ('0:00:19.980000', '0:00:27.180000')]</t>
+          <t>('0:00:01.421269', '0:00:26.162131')</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>[('0:00:15.060000', '0:00:23.160000'), ('0:00:26.960000', '0:00:33.500000')]</t>
+          <t>('0:00:17.340000', '0:00:24.400000')</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-116#t=8.44', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-116#t=19.98']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-149#t=1.421269</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-121#t=15.06', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-121#t=26.96']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-132#t=17.34</t>
         </is>
       </c>
       <c r="I7" t="inlineStr"/>
-      <c r="J7" t="inlineStr"/>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+        </is>
+      </c>
+      <c r="K7" t="inlineStr"/>
+      <c r="L7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>schubert-winterreise_62</t>
+          <t>schubert-winterreise_89</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>schubert-winterreise_41</t>
+          <t>schubert-winterreise_186</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>[['A:min', 'E:7/G#', 'A:min']]</t>
+          <t>['C:min/G', 'G:min', 'D:7', 'G:min']</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>[['B:min', 'F#:7/C#', 'B:min/D']]</t>
+          <t>['A#:min', 'F:min', 'C:7', 'F:min']</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>[('0:00:40.120000', '0:00:47.880000')]</t>
+          <t>('0:00:02.980000', '0:00:08.800000')</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>[('0:00:00.660000', '0:00:02.680000')]</t>
+          <t>('0:00:06.920000', '0:00:13.460000')</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-62#t=40.12']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-89#t=2.98</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-41#t=0.66']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-186#t=6.92</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
-        </is>
-      </c>
-      <c r="J8" t="inlineStr"/>
+          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+        </is>
+      </c>
+      <c r="K8" t="inlineStr"/>
+      <c r="L8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>jaah_27</t>
+          <t>schubert-winterreise_129</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>jaah_86</t>
+          <t>isophonics_251</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>[['A:7', 'D', 'D:7']]</t>
+          <t>['F:maj', 'A#:maj', 'F:maj', 'A#:maj', 'F:maj']</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>[['F:7', 'Bb', 'Bb:7']]</t>
+          <t>['D', 'G', 'D', 'G', 'D']</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>[('0:00:09.820000', '0:00:17.090000')]</t>
+          <t>('0:01:45', '0:01:48.840000')</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>[('0:00:20.050000', '0:00:24.880000')]</t>
+          <t>('0:00:07.525011', '0:00:16.557573')</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/jaah-27#t=9.82']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-129#t=105.0</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/jaah-86#t=20.05']</t>
-        </is>
-      </c>
-      <c r="I9" t="inlineStr"/>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-251#t=7.525011</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+        </is>
+      </c>
       <c r="J9" t="inlineStr"/>
+      <c r="K9" t="inlineStr"/>
+      <c r="L9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>schubert-winterreise_214</t>
+          <t>schubert-winterreise_177</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>jaah_73</t>
+          <t>schubert-winterreise_61</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>[['G:maj', 'D:7', 'G:maj']]</t>
+          <t>['A:min/E', 'E:7', 'A:min']</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>[['Bb', 'F:7', 'Bb']]</t>
+          <t>['G:min/D', 'D:7', 'G:min']</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>[('0:00:09.200000', '0:00:20.100000')]</t>
+          <t>('0:01:23.100000', '0:01:30.020000')</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>[('0:00:19.130000', '0:00:20.830000')]</t>
+          <t>('0:00:42.440000', '0:00:44.360000')</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-214#t=9.2']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-177#t=83.1</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/jaah-73#t=19.13']</t>
-        </is>
-      </c>
-      <c r="I10" t="inlineStr"/>
-      <c r="J10" t="inlineStr"/>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-61#t=42.44</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+        </is>
+      </c>
+      <c r="K10" t="inlineStr"/>
+      <c r="L10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>schubert-winterreise_38</t>
+          <t>schubert-winterreise_144</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>schubert-winterreise_146</t>
+          <t>schubert-winterreise_185</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>[['D#:min/A#', 'A#', 'D#:min/A#'], ['A#:7', 'D#:min', 'G#:min/B']]</t>
+          <t>['F:maj', 'C:7/E', 'F:maj']</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>[['B:min', 'F#:maj', 'B:min'], ['F#:7/B', 'B:min', 'E:min/B']]</t>
+          <t>['D:maj/F#', 'A:7', 'D:maj']</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>[('0:00:49.280000', '0:00:53.940000'), ('0:00:25.260000', '0:00:34.280000')]</t>
+          <t>('0:00:33.140000', '0:00:37.240000')</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>[('0:00:13.480000', '0:00:20.960000'), ('0:00:24.640000', '0:00:33')]</t>
+          <t>('0:00:39.800000', '0:00:45.400000')</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-38#t=49.28', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-38#t=25.26']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-144#t=33.14</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-146#t=13.48', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-146#t=24.64']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-185#t=39.8</t>
         </is>
       </c>
       <c r="I11" t="inlineStr"/>
@@ -948,182 +988,190 @@
           <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
         </is>
       </c>
+      <c r="K11" t="inlineStr"/>
+      <c r="L11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>isophonics_217</t>
+          <t>schubert-winterreise_41</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>schubert-winterreise_61</t>
+          <t>schubert-winterreise_25</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>[['G', 'C', 'G']]</t>
+          <t>['B:min', 'F#:maj/A#', 'B:min']</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>[['G:maj', 'C:maj/G', 'G:maj']]</t>
+          <t>['F:min/C', 'C', 'F:min/C']</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>[('0:00:03.826054', '0:00:14.054444')]</t>
+          <t>('0:00:11.160000', '0:00:16.300000')</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>[('0:00:18.120000', '0:00:24.540000')]</t>
+          <t>('0:00:42.520000', '0:00:46.360000')</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-217#t=3.826054']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-41#t=11.16</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-61#t=18.12']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-25#t=42.52</t>
         </is>
       </c>
       <c r="I12" t="inlineStr"/>
-      <c r="J12" t="inlineStr">
-        <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
-        </is>
-      </c>
+      <c r="J12" t="inlineStr"/>
+      <c r="K12" t="inlineStr"/>
+      <c r="L12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>jaah_6</t>
+          <t>isophonics_273</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>jaah_88</t>
+          <t>isophonics_32</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>[['Ab:7', 'Eb:7', 'Ab:7', 'Eb:7'], ['Eb:7', 'Ab:7', 'Eb:7', 'Ab:7']]</t>
+          <t>['C', 'G', 'C']</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>[['Bb:7', 'F:7', 'Bb:7', 'F:7'], ['F:7', 'Bb:7', 'F:7', 'Bb:7']]</t>
+          <t>['D/5', 'A', 'D']</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>[('0:02:14.830000', '0:02:16.700000'), ('0:02:15.470000', '0:02:17.330000')]</t>
+          <t>('0:00:20.801000', '0:00:27.165000')</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>[('0:00:02.440000', '0:00:11.840000'), ('0:00:00.870000', '0:00:10.300000')]</t>
+          <t>('0:02:04.702789', '0:02:10.612267')</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/jaah-6#t=134.83', 'https://soundcloud.com/jacopo-de-berardinis/jaah-6#t=135.47']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-273#t=20.801</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/jaah-88#t=2.44', 'https://soundcloud.com/jacopo-de-berardinis/jaah-88#t=0.87']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-32#t=124.702789</t>
         </is>
       </c>
       <c r="I13" t="inlineStr"/>
-      <c r="J13" t="inlineStr"/>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>spotify:track:0qHMhBZqYb99yhX9BHcIkV</t>
+        </is>
+      </c>
+      <c r="K13" t="inlineStr"/>
+      <c r="L13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>jaah_32</t>
+          <t>jaah_88</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>schubert-winterreise_196</t>
+          <t>jaah_74</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>[['G', 'D:7', 'G']]</t>
+          <t>['G:min7', 'C:7', 'F:7']</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>[['G:maj', 'D:7', 'G:maj']]</t>
+          <t>['F:min7', 'Bb:7', 'Eb:7']</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>[('0:00:11.550000', '0:00:25.740000')]</t>
+          <t>('0:00:13.420000', '0:00:21.240000')</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>[('0:00:08.700000', '0:00:18.300000')]</t>
+          <t>('0:01:25.150000', '0:01:27.510000')</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/jaah-32#t=11.55']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/jaah-88#t=13.42</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-196#t=8.7']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/jaah-74#t=85.15</t>
         </is>
       </c>
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
+      <c r="K14" t="inlineStr"/>
+      <c r="L14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>schubert-winterreise_188</t>
+          <t>schubert-winterreise_74</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>isophonics_74</t>
+          <t>schubert-winterreise_133</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>[['F:maj', 'A#:maj', 'F:maj', 'A#:maj', 'F:maj']]</t>
+          <t>['F:maj', 'A#:maj', 'F:maj']</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>[['E', 'A', 'E', 'A', 'E']]</t>
+          <t>['G:maj/B', 'C:maj', 'G:maj/D']</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>[('0:02:08.760000', '0:02:14.600000')]</t>
+          <t>('0:02:09.380000', '0:02:14.380000')</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>[('0:00:37.995918', '0:01:09.517005')]</t>
+          <t>('0:01:01.600000', '0:01:03.840000')</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-188#t=128.76']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-74#t=129.38</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-74#t=37.995918']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-133#t=61.6</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
@@ -1132,58 +1180,54 @@
         </is>
       </c>
       <c r="J15" t="inlineStr"/>
+      <c r="K15" t="inlineStr"/>
+      <c r="L15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>schubert-winterreise_71</t>
+          <t>schubert-winterreise_194</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>schubert-winterreise_149</t>
+          <t>schubert-winterreise_11</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>[['D#:maj/A#', 'A#:7', 'D#:maj']]</t>
+          <t>['C:min', 'G:maj/B', 'C:min']</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>[['C:maj/G', 'G:7', 'C:maj']]</t>
+          <t>['C:min', 'G:maj', 'C:min']</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>[('0:01:15.800000', '0:01:22.440000')]</t>
+          <t>('0:00:13.520000', '0:00:19.080000')</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>[('0:00:32.440000', '0:00:34.800000')]</t>
+          <t>('0:00:07.960000', '0:00:13.120000')</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-71#t=75.8']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-194#t=13.52</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-149#t=32.44']</t>
-        </is>
-      </c>
-      <c r="I16" t="inlineStr">
-        <is>
-          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
-        </is>
-      </c>
-      <c r="J16" t="inlineStr">
-        <is>
-          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
-        </is>
-      </c>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-11#t=7.96</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr"/>
+      <c r="J16" t="inlineStr"/>
+      <c r="K16" t="inlineStr"/>
+      <c r="L16" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
